--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan_\Desktop\DataPath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6EA8CEB-97BB-4124-9771-873EF16416C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA500A9-DF46-4EB8-9474-808871598B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A29B29E-781E-4366-9578-AE8ECF56AC93}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{9A29B29E-781E-4366-9578-AE8ECF56AC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +36,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>op 6</t>
+  </si>
+  <si>
+    <t>rs 5</t>
+  </si>
+  <si>
+    <t>rt 5</t>
+  </si>
+  <si>
+    <t>rd 5</t>
+  </si>
+  <si>
+    <t>shawt 5</t>
+  </si>
+  <si>
+    <t>funct 6</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +113,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +471,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237BAF8-8782-4E60-BB1C-82461FCA1DC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E073AC1C-6E36-4311-B7B3-63AD6BB9BDF5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>